--- a/medicine/Psychotrope/Requiem_for_a_Dream/Requiem_for_a_Dream.xlsx
+++ b/medicine/Psychotrope/Requiem_for_a_Dream/Requiem_for_a_Dream.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Requiem for a Dream, ou Retour à Brooklyn au Québec, est un film américain de Darren Aronofsky, sorti en 2000. Il s'agit d'une adaptation du roman Retour à Brooklyn de 1978 d'Hubert Selby, qui a coécrit le scénario avec le réalisateur. Il raconte l'histoire de quatre personnages touchés par la toxicomanie et comment cela modifie leurs états physiques et émotionnels. Leurs dépendances les emprisonnent dans un monde d'illusions et de désespoir. Au fur et à mesure que le film progresse, chaque personnage se détériore et leur réalité est dépassée par l'illusion, entraînant une catastrophe.
 Les droits du roman de Selby est acheté par Aronofsky et le producteur Eric Watson pour 1 000 $. Selby avait toujours eu l'intention d'adapter le roman en film et avait écrit un scénario des années avant qu'Aronofsky ne l'approche. Aronofsky était enthousiasmé par l'histoire et a développé le scénario avec Selby, malgré les difficultés initiales pour obtenir un financement pour la production du film. Il considère que le film parle des dépendances en général, et pas seulement de celle de la drogue, avec en thème de fond la solitude et l'évitement de la réalité de différentes manières.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harold Goldfarb, alias Harry, son meilleur ami Tyrone et sa petite amie Marianne (Marion dans la version originale) sont trois consommateurs d'héroïne. Ils passent leurs journées à se droguer et s'inventent un paradis artificiel, où ils se sentent invulnérables et heureux. Harry connaît avec Marianne l'harmonie et le plaisir des sens.
 La mère de Harry, Sara Goldfarb, une femme âgée dépendante de télévision, passe sa vie à récupérer chez le prêteur sur gage le téléviseur qu'Harry y dépose régulièrement afin de se fournir ses doses. Malgré tout, elle aime profondément son fils unique et celui-ci aime également sa mère.
@@ -551,7 +565,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Requiem for a Dream
 Titre français : Requiem for a Dream
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Photos des acteurs principaux
@@ -632,7 +650,7 @@
 Samia Shoaib : l'infirmière Mall
 Bryan Chattoo (VF : Vincent Ropion) : Brody
 Eddie De Harp (VF : Jean-Paul Pitolin) : Le bras droit de Brody
-Source et légende : Version francophone française (VF) sur AlloDoublage[1] Version québécoise (VQ) sur Doublage.qc.ca [2]</t>
+Source et légende : Version francophone française (VF) sur AlloDoublage Version québécoise (VQ) sur Doublage.qc.ca </t>
         </is>
       </c>
     </row>
@@ -661,6 +679,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -688,14 +708,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival international du film de Stockholm 2000 : meilleure actrice pour Ellen Burstyn
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival international du film de Stockholm 2000 : meilleure actrice pour Ellen Burstyn
 Festival international de Valladolid 2000 : Golden Spike pour Aronofsky
 National Board of Review 2000 : Special Recognition for Excellence in Filmmaking
 Sierra Awards (Las Vegas Film Critics Society) 2000 : meilleure actrice pour Ellen Burstyn
 Boston Society of Film Critics Awards 2000 : meilleure actrice pour Ellen Burstyn
-Chicago Film Critics Association Awards 2000 : meilleure actrice pour Ellen Burstyn et meilleure réalisation pour Darren Aronofsky [3]
-Chlotrudis Awards 2001 : meilleur film [4]
+Chicago Film Critics Association Awards 2000 : meilleure actrice pour Ellen Burstyn et meilleure réalisation pour Darren Aronofsky 
+Chlotrudis Awards 2001 : meilleur film 
 Florida Film Critics Circle Awards 2001 : meilleure actrice pour Ellen Burstyn
 Independent Spirit Awards 2001 : meilleure actrice pour Ellen Burstyn
 Kansas City Film Critics Circle Awards 2001 : meilleure actrice pour Ellen Burstyn
@@ -709,9 +734,43 @@
 Meilleur montage pour Jay Rabinowitz
 Satellite Awards 2001 : meilleure actrice Ellen Burstyn
 Southeastern Film Critics Association Awards 2001 : meilleure actrice pour Ellen Burstyn
-Golden Trailer Awards 2001 : prix de la meilleure bande-annonce
-Nominations et sélections
-Festival de Cannes 2000 : sélection hors compétition
+Golden Trailer Awards 2001 : prix de la meilleure bande-annonce</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Requiem_for_a_Dream</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem_for_a_Dream</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2000 : sélection hors compétition
 Festival international du film de Stockholm : en compétition pour le Cheval de bronze
 Oscars 2001 : meilleure actrice pour Ellen Burstyn
 Golden Globes 2001 : meilleure actrice dans un film dramatique pour Ellen Burstyn
@@ -726,38 +785,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Requiem_for_a_Dream</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Requiem_for_a_Dream</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> États-Unis : 3 635 482 dollars[5]
- France : 228 410 entrées[5]
- Mondial : 7 390 108 dollars[5]</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -779,13 +806,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis : 3 635 482 dollars
+ France : 228 410 entrées
+ Mondial : 7 390 108 dollars</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Requiem_for_a_Dream</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Requiem_for_a_Dream</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Si Ellen Burstyn était le premier choix pour incarner Sara Goldfarb, Faye Dunaway et Anne Bancroft furent également pressenties pour le rôle. En revanche, les noms de  Neve Campbell et Dave Chappelle étaient les premiers choix pour les rôles respectifs de Marianne et Tyrone. Mais Neve Campbell refusera de participer au projet en raison des scènes de nudité. Tandis que pour incarner Harry Goldfarb, les premiers choix étaient Tobey Maguire, Giovanni Ribisi et Joaquin Phoenix.
-Certaines scènes du film sont tournées à Coney Island et à Brooklyn[6].
+Certaines scènes du film sont tournées à Coney Island et à Brooklyn.
 Le père de Darren Aronofsky, Abraham Aronofsky, joue le rôle de l'homme au journal dans le métro, Charlotte Aronofsky celui de Mme Miles, et Patty Aronofsky fait également partie de l'équipe du film.
 Le garde hilare, qui se moque de Tyrone, est Hubert Selby, auteur du livre.
 Sean Gullette, l'acteur principal de Pi, premier long métrage de Darren Aronofsky, joue ici le rôle d'Arnold.
@@ -799,7 +862,7 @@
 Un clin d'œil au film Dark City (1998) est présent : dans les deux films se trouve une scène où Jennifer Connelly est seule sur le ponton de Brighton Beach, scrutant l'océan.
 La scène où Jared Leto est sur la route, deux motos passant à chacun de ses côtés est également un clin d’œil au film La Revanche de Pinocchio sorti en 1996, où la même scène se passe avec Zoé, la petite fille, personnage principal. Le film Mr Nobody, avec Jared Leto, comporte également une scène similaire.
 Pour continuer avec Mr. Nobody, on peut remarquer tout autant que ce film comporte plusieurs références à Requiem for a Dream, mais seulement sur quelques plans, points de vue et lieux (le banc devant lequel passent Harry et Tyrone au début du film, la scène du "you are my dream", certains moments entre Marion et Harry ou tout simplement l'œil présent sur l'affiche du film). On ne sait pourtant pas si ceux-ci sont laissés au hasard ou non, mais la présence de Jared Leto sur ce film nous le laisse penser.
-Dans une masterclass (Lectures by Satoshi Kon[7], 2007), Satoshi Kon évoque une discussion avec Darren Aronofsky sur des similitudes entre de scènes de son film animé Perfect Blue. Le réalisateur de Requiem for a dream lui aurait répondu que ces scènes étaient des hommages, celui-ci était un admirateur du réalisateur japonais.</t>
+Dans une masterclass (Lectures by Satoshi Kon, 2007), Satoshi Kon évoque une discussion avec Darren Aronofsky sur des similitudes entre de scènes de son film animé Perfect Blue. Le réalisateur de Requiem for a dream lui aurait répondu que ces scènes étaient des hommages, celui-ci était un admirateur du réalisateur japonais.</t>
         </is>
       </c>
     </row>
